--- a/topics&content.xlsx
+++ b/topics&content.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\MY_REPO\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="9732"/>
   </bookViews>
   <sheets>
     <sheet name="Core Java_SCJP" sheetId="6" r:id="rId1"/>
@@ -17,8 +22,8 @@
     <sheet name="Jsp" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <r>
       <rPr>
@@ -399,12 +404,27 @@
 </t>
     </r>
   </si>
+  <si>
+    <t>1.Introduction
+     Multitasking
+          Process based multitasking
+          Thread based multitasking
+2.Defining a Thread
+3.Getting and setting name of the thread
+4.Thread priorities
+5.The methods to prevent thread Execution
+6.Synchronization
+7.Inter Thread Communication
+8.Deadlock
+9.Deamon Threads
+10.MultiThreading Enhancement</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -520,7 +540,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -550,9 +570,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -827,27 +844,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="88" customWidth="1"/>
-    <col min="2" max="2" width="99.7109375" customWidth="1"/>
+    <col min="2" max="2" width="99.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" customHeight="1">
+    <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -855,11 +872,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="409.5" customHeight="1">
+    <row r="2" spans="1:2" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -868,20 +887,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="102.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="103.85546875" customWidth="1"/>
+    <col min="1" max="1" width="102.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="103.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="406.5" customHeight="1">
+    <row r="1" spans="1:2" ht="406.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>12</v>
       </c>
@@ -896,22 +915,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="59.85546875" customWidth="1"/>
-    <col min="2" max="2" width="54.140625" customWidth="1"/>
-    <col min="3" max="3" width="51.7109375" customWidth="1"/>
-    <col min="4" max="4" width="51.5703125" customWidth="1"/>
+    <col min="1" max="1" width="59.88671875" customWidth="1"/>
+    <col min="2" max="2" width="54.109375" customWidth="1"/>
+    <col min="3" max="3" width="51.6640625" customWidth="1"/>
+    <col min="4" max="4" width="51.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="381" customHeight="1">
+    <row r="1" spans="1:4" ht="381" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -932,39 +951,39 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="154.5" customHeight="1"/>
+    <row r="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.5703125" customWidth="1"/>
-    <col min="2" max="2" width="57.7109375" customWidth="1"/>
-    <col min="3" max="3" width="44.5703125" customWidth="1"/>
-    <col min="4" max="4" width="52.140625" customWidth="1"/>
+    <col min="1" max="1" width="55.5546875" customWidth="1"/>
+    <col min="2" max="2" width="57.6640625" customWidth="1"/>
+    <col min="3" max="3" width="44.5546875" customWidth="1"/>
+    <col min="4" max="4" width="52.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -983,7 +1002,7 @@
       <c r="H1" s="8"/>
       <c r="I1" s="9"/>
     </row>
-    <row r="2" spans="1:10" ht="407.25" customHeight="1">
+    <row r="2" spans="1:10" ht="407.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
@@ -1010,29 +1029,29 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="74.7109375" customWidth="1"/>
+    <col min="1" max="1" width="74.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="409.5" customHeight="1">
+    <row r="1" spans="1:1" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -1044,12 +1063,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
